--- a/docs/designs/Burndown/Burndown_Template_v3.xlsx
+++ b/docs/designs/Burndown/Burndown_Template_v3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92DC43E-B1FA-4D33-9E88-4CC72D1817BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E86E319-6129-4832-A364-B185725FF264}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3375" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,11 +13,11 @@
     <sheet name="Develop module" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="sprint1_done">Story1!$H$36</definedName>
+    <definedName name="sprint1_done">Story1!$H$39</definedName>
     <definedName name="sprint1_hours">Story1!#REF!</definedName>
     <definedName name="sprint1_interval">Story1!$M$2</definedName>
     <definedName name="sprint1_start">Story1!$N$2</definedName>
-    <definedName name="sprint1_target">Story1!$I$36</definedName>
+    <definedName name="sprint1_target">Story1!$I$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>Todo</t>
   </si>
@@ -152,51 +152,21 @@
     <t>Define name</t>
   </si>
   <si>
-    <t>[npm init]</t>
-  </si>
-  <si>
-    <t>(Create repo)</t>
-  </si>
-  <si>
     <t>[Clone repo]</t>
   </si>
   <si>
     <t>[[Setup readme]]</t>
   </si>
   <si>
-    <t>[Add badges]</t>
-  </si>
-  <si>
-    <t>[Add using]</t>
-  </si>
-  <si>
-    <t>[Add license]</t>
-  </si>
-  <si>
-    <t>[add .gitignore]</t>
-  </si>
-  <si>
-    <t>[add .travis.yml]</t>
-  </si>
-  <si>
-    <t>[yarn --dev]</t>
-  </si>
-  <si>
     <t>[initial commit]</t>
   </si>
   <si>
-    <t>[[setup build]]</t>
-  </si>
-  <si>
     <t>[setup travis]</t>
   </si>
   <si>
     <t>[setup codefactor]</t>
   </si>
   <si>
-    <t>[add package scripts]</t>
-  </si>
-  <si>
     <t>[npm test]</t>
   </si>
   <si>
@@ -206,16 +176,100 @@
     <t>Setup Readme</t>
   </si>
   <si>
-    <t>Setup Build</t>
-  </si>
-  <si>
     <t>(end)</t>
   </si>
   <si>
-    <t>[create test/test.js]</t>
-  </si>
-  <si>
-    <t>[create src/main.js]</t>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>(New Project)</t>
+  </si>
+  <si>
+    <t>[[Create repo]]</t>
+  </si>
+  <si>
+    <t>[Setup Github]</t>
+  </si>
+  <si>
+    <t>[Setup WhiteSource]</t>
+  </si>
+  <si>
+    <t>[edit readme]</t>
+  </si>
+  <si>
+    <t>[ll badges readme]</t>
+  </si>
+  <si>
+    <t>[ll readme usage]</t>
+  </si>
+  <si>
+    <t>[MIT license]</t>
+  </si>
+  <si>
+    <t>[[Setup environment]]</t>
+  </si>
+  <si>
+    <t>[copy sid_clone.bat]</t>
+  </si>
+  <si>
+    <t>[edit folder &amp; run]</t>
+  </si>
+  <si>
+    <t>[yarn]</t>
+  </si>
+  <si>
+    <t>[edit package.json]</t>
+  </si>
+  <si>
+    <t>[npm run rules]</t>
+  </si>
+  <si>
+    <t>Setup environment</t>
+  </si>
+  <si>
+    <t>[[Setup build]]</t>
+  </si>
+  <si>
+    <t>Setup build</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>(na)</t>
+  </si>
+  <si>
+    <t>[Define name]</t>
+  </si>
+  <si>
+    <t>(Develop module)</t>
+  </si>
+  <si>
+    <t>[[Define scope]]</t>
+  </si>
+  <si>
+    <t>Define scope</t>
+  </si>
+  <si>
+    <t>Publish</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Dev1</t>
+  </si>
+  <si>
+    <t>Dev2</t>
+  </si>
+  <si>
+    <t>Dev3</t>
   </si>
 </sst>
 </file>
@@ -225,7 +279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,8 +324,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,8 +367,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -427,13 +499,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -523,17 +610,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -956,7 +1051,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1052,43 +1147,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1892,8 +1987,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCBDD212-65F4-451C-9F45-EF037770D508}" name="Table1" displayName="Table1" ref="B21:G33" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="B21:G33" xr:uid="{B05A7B27-0ECF-4B6A-B913-CB3742613ED6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCBDD212-65F4-451C-9F45-EF037770D508}" name="Table1" displayName="Table1" ref="B21:G36" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="B21:G36" xr:uid="{B05A7B27-0ECF-4B6A-B913-CB3742613ED6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1711E6F0-4639-4998-99CD-6C8FAA404A0B}" name="No" dataDxfId="12">
       <calculatedColumnFormula>B21+1</calculatedColumnFormula>
@@ -2245,10 +2340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:G20"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,15 +2423,15 @@
       </c>
       <c r="Q2" s="27">
         <f ca="1">DATEDIF(N3,O2,"d")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="18">
-        <f>I36/P2</f>
-        <v>8</v>
+        <f>I39/P2</f>
+        <v>15.333333333333334</v>
       </c>
       <c r="S2" s="32">
         <f ca="1">(P2-Q2)*R2</f>
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="U2" s="1">
         <v>1</v>
@@ -2361,7 +2456,7 @@
       </c>
       <c r="N3" s="26">
         <f ca="1">NOW()</f>
-        <v>43526.903251388889</v>
+        <v>43527.402841319446</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="2"/>
@@ -2428,11 +2523,11 @@
       </c>
       <c r="N5" s="10">
         <f>sprint1_target</f>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="O5" s="20">
         <f t="shared" ref="O5:O17" si="2">sprint1_target-Q5</f>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P5" s="24"/>
       <c r="Q5" s="10"/>
@@ -2466,7 +2561,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="20">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P6" s="25">
         <v>0</v>
@@ -2477,7 +2572,7 @@
       </c>
       <c r="R6" s="18">
         <f t="shared" ref="R6:R17" si="4">(sprint1_target/12) *L6</f>
-        <v>0.34</v>
+        <v>0.65166666666666673</v>
       </c>
       <c r="U6" s="1">
         <v>4</v>
@@ -2506,7 +2601,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="20">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P7" s="25">
         <f>sprint1_done</f>
@@ -2518,7 +2613,7 @@
       </c>
       <c r="R7" s="18">
         <f t="shared" si="4"/>
-        <v>0.68</v>
+        <v>1.3033333333333335</v>
       </c>
     </row>
     <row r="8" spans="9:24" x14ac:dyDescent="0.25">
@@ -2533,7 +2628,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="20">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P8" s="25">
         <v>0</v>
@@ -2544,7 +2639,7 @@
       </c>
       <c r="R8" s="18">
         <f t="shared" si="4"/>
-        <v>1.02</v>
+        <v>1.9550000000000001</v>
       </c>
     </row>
     <row r="9" spans="9:24" x14ac:dyDescent="0.25">
@@ -2559,7 +2654,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="20">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P9" s="25">
         <v>0</v>
@@ -2570,7 +2665,7 @@
       </c>
       <c r="R9" s="18">
         <f t="shared" si="4"/>
-        <v>1.36</v>
+        <v>2.6066666666666669</v>
       </c>
     </row>
     <row r="10" spans="9:24" x14ac:dyDescent="0.25">
@@ -2585,7 +2680,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="20">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P10" s="25">
         <v>0</v>
@@ -2596,7 +2691,7 @@
       </c>
       <c r="R10" s="18">
         <f t="shared" si="4"/>
-        <v>1.7000000000000002</v>
+        <v>3.2583333333333337</v>
       </c>
     </row>
     <row r="11" spans="9:24" x14ac:dyDescent="0.25">
@@ -2611,7 +2706,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="20">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P11" s="25">
         <v>0</v>
@@ -2622,7 +2717,7 @@
       </c>
       <c r="R11" s="18">
         <f t="shared" si="4"/>
-        <v>2.04</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="12" spans="9:24" x14ac:dyDescent="0.25">
@@ -2637,7 +2732,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="20">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P12" s="25">
         <v>0</v>
@@ -2648,7 +2743,7 @@
       </c>
       <c r="R12" s="18">
         <f t="shared" si="4"/>
-        <v>2.38</v>
+        <v>4.5616666666666665</v>
       </c>
     </row>
     <row r="13" spans="9:24" x14ac:dyDescent="0.25">
@@ -2663,7 +2758,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="20">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P13" s="25">
         <v>0</v>
@@ -2674,7 +2769,7 @@
       </c>
       <c r="R13" s="18">
         <f t="shared" si="4"/>
-        <v>2.7199999999999998</v>
+        <v>5.2133333333333329</v>
       </c>
     </row>
     <row r="14" spans="9:24" x14ac:dyDescent="0.25">
@@ -2689,7 +2784,7 @@
       <c r="N14" s="10"/>
       <c r="O14" s="20">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P14" s="25">
         <v>0</v>
@@ -2700,7 +2795,7 @@
       </c>
       <c r="R14" s="18">
         <f t="shared" si="4"/>
-        <v>3.0599999999999996</v>
+        <v>5.8649999999999993</v>
       </c>
     </row>
     <row r="15" spans="9:24" x14ac:dyDescent="0.25">
@@ -2715,7 +2810,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="20">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P15" s="25">
         <v>0</v>
@@ -2726,7 +2821,7 @@
       </c>
       <c r="R15" s="18">
         <f t="shared" si="4"/>
-        <v>3.3999999999999995</v>
+        <v>6.5166666666666657</v>
       </c>
     </row>
     <row r="16" spans="9:24" x14ac:dyDescent="0.25">
@@ -2741,7 +2836,7 @@
       <c r="N16" s="10"/>
       <c r="O16" s="20">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P16" s="25">
         <v>0</v>
@@ -2752,7 +2847,7 @@
       </c>
       <c r="R16" s="18">
         <f t="shared" si="4"/>
-        <v>3.7399999999999993</v>
+        <v>7.1683333333333321</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -2769,7 +2864,7 @@
       </c>
       <c r="O17" s="20">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P17" s="25">
         <v>0</v>
@@ -2780,7 +2875,7 @@
       </c>
       <c r="R17" s="18">
         <f t="shared" si="4"/>
-        <v>4.0799999999999992</v>
+        <v>7.8199999999999985</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2793,15 +2888,15 @@
       <c r="R18" s="33"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -2832,8 +2927,12 @@
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="20"/>
+      <c r="F22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
@@ -2845,8 +2944,12 @@
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
@@ -2858,8 +2961,12 @@
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="20"/>
+      <c r="F24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
@@ -2871,8 +2978,12 @@
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="20"/>
+      <c r="F25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
@@ -2880,12 +2991,16 @@
         <v>5</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="20"/>
+      <c r="F26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
@@ -2893,7 +3008,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -2905,7 +3020,9 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -2916,117 +3033,182 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="20"/>
+      <c r="F29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="C30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="43">
+      <c r="B31" s="41">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="C31" s="44"/>
+      <c r="C31" s="42" t="s">
+        <v>68</v>
+      </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
-      <c r="G31" s="45"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <f t="shared" ref="B32:B33" si="8">B31+1</f>
         <v>11</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="43">
+      <c r="B33" s="41">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="C33" s="44"/>
+      <c r="C33" s="42" t="s">
+        <v>65</v>
+      </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="45"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
+      <c r="B34" s="3">
+        <f t="shared" ref="B34:B36" si="9">B33+1</f>
+        <v>13</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9" t="s">
+      <c r="B35" s="3">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="41">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="43"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="1">
+        <f>COUNTIF(Table1[Tested],"na")</f>
+        <v>7</v>
+      </c>
+      <c r="G38" s="1">
+        <f>COUNTIF(Table1[Verified],"na")</f>
+        <v>7</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9" t="s">
+      <c r="I38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="str">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="44" t="str">
         <f>A20</f>
         <v>Story1:Todo</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="1">
-        <f>COUNTA(C22:C33)</f>
-        <v>6</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="B39" s="44"/>
+      <c r="C39" s="1">
+        <f>COUNTA(C22:C36)</f>
+        <v>15</v>
+      </c>
+      <c r="D39" s="1">
         <f>COUNTA(D22:D33)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E39" s="1">
         <f>COUNTA(E22:E33)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="1">
-        <f>COUNTA(F22:F33)</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
-        <f>COUNTA(G22:G33)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="10">
-        <f>SUM(D36:G36)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="10">
-        <f>C36*4</f>
-        <v>24</v>
-      </c>
-      <c r="J36" s="23">
-        <f>H36/I36</f>
+      <c r="F39" s="1">
+        <f>COUNTA(F22:F36) -F38</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <f>COUNTA(G22:G36) -G38</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <f>SUM(D39:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <f>(C39*4) -F38-G38</f>
+        <v>46</v>
+      </c>
+      <c r="J39" s="23">
+        <f>H39/I39</f>
         <v>0</v>
       </c>
     </row>
@@ -3034,13 +3216,13 @@
   <protectedRanges>
     <protectedRange sqref="M2:N2 P6:P17" name="Range3"/>
     <protectedRange sqref="A20" name="Range1"/>
-    <protectedRange sqref="B21:G33" name="Table"/>
+    <protectedRange sqref="B21:G36" name="Table"/>
   </protectedRanges>
   <mergeCells count="2">
-    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:G20"/>
   </mergeCells>
-  <conditionalFormatting sqref="J36">
+  <conditionalFormatting sqref="J39">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3078,7 +3260,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J36</xm:sqref>
+          <xm:sqref>J39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3088,115 +3270,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EAD6D6-A384-4AEA-8AC2-BBE5FFB636DC}">
-  <dimension ref="A2:A21"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="48"/>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3207,7 +3425,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60861CDF-960E-4F70-9B42-1E7C1BF100C1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -3215,9 +3433,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="B11:B14" name="Table_3"/>
+  </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>